--- a/assets/excel/2022_2-3-4.xlsx
+++ b/assets/excel/2022_2-3-4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15-Uebergreifende-Analysen\Projekte\Integrationsmonitoring\github\MT_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3FD296-6A78-4DCD-BEA3-E624EE584862}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CED1319-FC21-4CB5-8326-E7F58BD13114}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{2C0D3989-42FD-490A-A21B-E034F5A30F90}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10410" xr2:uid="{2C0D3989-42FD-490A-A21B-E034F5A30F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -173,9 +173,6 @@
     <t>2) einschl. britisch abhängiger Gebiete</t>
   </si>
   <si>
-    <t>3) Europa ab 2021 ohne Großbritannien</t>
-  </si>
-  <si>
     <t>Quelle: Einbürgerungsstatistik</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>3) EU-Staaten ab 2021 ohne Großbritannien</t>
   </si>
 </sst>
 </file>
@@ -734,7 +734,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B1:R48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1066,13 +1066,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="8">
         <v>34</v>
@@ -1967,25 +1967,25 @@
         <v>25</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J31" s="8">
         <v>17</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="41" spans="2:18" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="43" spans="2:18" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="2:18" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2420,22 +2420,22 @@
     </row>
     <row r="45" spans="2:18" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="2:18" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="2:18" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="2:18" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
